--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:15:59</t>
+  </si>
+  <si>
+    <t>c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
+  </si>
+  <si>
+    <t>e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 06:15:59</t>
-  </si>
-  <si>
-    <t>c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
-  </si>
-  <si>
-    <t>e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
+    <t>2017-02-09 06:18:19</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +145,12 @@
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-09 06:18:02</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:18:57</t>
+  </si>
+  <si>
     <t>1088303c-8f05-4fd0-92a3-42d3a6ffa781.625be3ffe627d2959c60fb8bebd3213f60fc1f3e.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:19:22</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,13 +357,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +526,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-09 06:15:59</t>
   </si>
   <si>
+    <t>3ea21f8f-5947-46ae-af78-6e626f390fe3.md</t>
+  </si>
+  <si>
+    <t>e2e\3ea21f8f-5947-46ae-af78-6e626f390fe3.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:20:36</t>
+  </si>
+  <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
   </si>
   <si>
     <t>e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 06:18:19</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>3ea21f8f-5947-46ae-af78-6e626f390fe3.73fd09fc2679f07d38a056a5802eb3cc15a6b4e4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:20:18</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:21:12</t>
+  </si>
+  <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-09 06:17:21</t>
+  </si>
+  <si>
+    <t>3ea21f8f-5947-46ae-af78-6e626f390fe3.73fd09fc2679f07d38a056a5802eb3cc15a6b4e4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:21:36</t>
   </si>
   <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,21 @@
     <t>2017-02-09 06:20:36</t>
   </si>
   <si>
+    <t>4d36eb88-cadc-4a99-8c1e-1080ec121121.md</t>
+  </si>
+  <si>
+    <t>e2e\4d36eb88-cadc-4a99-8c1e-1080ec121121.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:23:01</t>
+  </si>
+  <si>
+    <t>4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md</t>
+  </si>
+  <si>
+    <t>e2e\4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md</t>
+  </si>
+  <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.md</t>
   </si>
   <si>
@@ -73,6 +88,18 @@
     <t>2017-02-09 06:18:19</t>
   </si>
   <si>
+    <t>cb39542a-97f3-46bc-9e14-c153d6248383.md</t>
+  </si>
+  <si>
+    <t>e2e\cb39542a-97f3-46bc-9e14-c153d6248383.md</t>
+  </si>
+  <si>
+    <t>ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md</t>
+  </si>
+  <si>
+    <t>e2e\ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -160,6 +187,18 @@
     <t>2017-02-09 06:21:12</t>
   </si>
   <si>
+    <t>4d36eb88-cadc-4a99-8c1e-1080ec121121.d1bf67f97f0203518719071563a03d01798a0943.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:22:42</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:24:29</t>
+  </si>
+  <si>
+    <t>4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.4803cafc7c5761e5ecce0201669d27efe2256fb0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.zh-cn.xlf</t>
   </si>
   <si>
@@ -169,6 +208,12 @@
     <t>2017-02-09 06:18:57</t>
   </si>
   <si>
+    <t>cb39542a-97f3-46bc-9e14-c153d6248383.40ad03897b677e5eccc3a6025e934cf0d0ad9fff.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>ea74e8e5-f4c0-4654-80ad-1e7e4560076a.9f0c72f25c6f2e8c8ad050e61fe1661e210ec307.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>1088303c-8f05-4fd0-92a3-42d3a6ffa781.625be3ffe627d2959c60fb8bebd3213f60fc1f3e.de-de.xlf</t>
   </si>
   <si>
@@ -181,10 +226,25 @@
     <t>2017-02-09 06:21:36</t>
   </si>
   <si>
+    <t>4d36eb88-cadc-4a99-8c1e-1080ec121121.d1bf67f97f0203518719071563a03d01798a0943.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 06:24:53</t>
+  </si>
+  <si>
+    <t>4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.4803cafc7c5761e5ecce0201669d27efe2256fb0.de-de.xlf</t>
+  </si>
+  <si>
     <t>c0017c90-7afb-4414-b415-c313c9e832b5.39f40bd9d8586b3abfb051682c284b6da3f6b326.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 06:19:22</t>
+  </si>
+  <si>
+    <t>cb39542a-97f3-46bc-9e14-c153d6248383.40ad03897b677e5eccc3a6025e934cf0d0ad9fff.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ea74e8e5-f4c0-4654-80ad-1e7e4560076a.9f0c72f25c6f2e8c8ad050e61fe1661e210ec307.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -241,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +470,95 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\4d36eb88-cadc-4a99-8c1e-1080ec121121.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\cb39542a-97f3-46bc-9e14-c153d6248383.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +597,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +662,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +718,49 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -630,49 +774,273 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +1049,16 @@
     <hyperlink ref="J2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4d36eb88-cadc-4a99-8c1e-1080ec121121.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4d36eb88-cadc-4a99-8c1e-1080ec121121.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="cb39542a-97f3-46bc-9e14-c153d6248383.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="cb39542a-97f3-46bc-9e14-c153d6248383.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +1097,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +1162,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +1218,49 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -898,49 +1274,273 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -949,8 +1549,16 @@
     <hyperlink ref="J2" display="1088303c-8f05-4fd0-92a3-42d3a6ffa781.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="3ea21f8f-5947-46ae-af78-6e626f390fe3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4d36eb88-cadc-4a99-8c1e-1080ec121121.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4d36eb88-cadc-4a99-8c1e-1080ec121121.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="4ddd128c-6789-43c4-a7ef-f7ef71ac01ea.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="c0017c90-7afb-4414-b415-c313c9e832b5.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="cb39542a-97f3-46bc-9e14-c153d6248383.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="cb39542a-97f3-46bc-9e14-c153d6248383.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="ea74e8e5-f4c0-4654-80ad-1e7e4560076a.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,15 @@
     <t>2017-02-09 07:56:23</t>
   </si>
   <si>
+    <t>b013591f-7584-4a73-a059-a39a2aac7c99.md</t>
+  </si>
+  <si>
+    <t>e2e\b013591f-7584-4a73-a059-a39a2aac7c99.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:01:57</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +139,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:01:40</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:02:39</t>
+  </si>
+  <si>
     <t>17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.011e03534ea2ed32701894511d35d75c92375e1e.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 07:57:32</t>
+  </si>
+  <si>
+    <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:03:03</t>
   </si>
 </sst>
 </file>
@@ -190,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +343,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +470,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
     <hyperlink ref="J2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +680,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
     <hyperlink ref="J2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,15 @@
     <t>2017-02-09 07:56:23</t>
   </si>
   <si>
+    <t>988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md</t>
+  </si>
+  <si>
+    <t>e2e\988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:05:55</t>
+  </si>
+  <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.md</t>
   </si>
   <si>
@@ -139,6 +148,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>988f0d34-da6c-42ee-a00a-90bfe4dcaad4.8dd91d1fe14babc2a7799349a32d30536a6e5870.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:05:37</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:06:33</t>
+  </si>
+  <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.zh-cn.xlf</t>
   </si>
   <si>
@@ -152,6 +170,12 @@
   </si>
   <si>
     <t>2017-02-09 07:57:32</t>
+  </si>
+  <si>
+    <t>988f0d34-da6c-42ee-a00a-90bfe4dcaad4.8dd91d1fe14babc2a7799349a32d30536a6e5870.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:07:00</t>
   </si>
   <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.de-de.xlf</t>
@@ -214,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -285,7 +309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -363,10 +387,31 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,58 +450,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -470,49 +515,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -526,57 +571,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>38</v>
+      <c r="R4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
     <hyperlink ref="J2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -587,7 +690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,58 +718,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -680,49 +783,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -736,57 +839,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>38</v>
+      <c r="R4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId2"/>
     <hyperlink ref="J2" display="17c0919d-c3f6-4c5e-a05d-6cd3e4f8f9d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b013591f-7584-4a73-a059-a39a2aac7c99.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -58,7 +58,7 @@
     <t>e2e\988f0d34-da6c-42ee-a00a-90bfe4dcaad4.md</t>
   </si>
   <si>
-    <t>2017-02-09 08:05:55</t>
+    <t>2017-02-09 08:08:04</t>
   </si>
   <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.md</t>
@@ -151,10 +151,10 @@
     <t>988f0d34-da6c-42ee-a00a-90bfe4dcaad4.8dd91d1fe14babc2a7799349a32d30536a6e5870.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 08:05:37</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:06:33</t>
+    <t>2017-02-09 08:07:46</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:08:43</t>
   </si>
   <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.zh-cn.xlf</t>
@@ -175,7 +175,7 @@
     <t>988f0d34-da6c-42ee-a00a-90bfe4dcaad4.8dd91d1fe14babc2a7799349a32d30536a6e5870.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 08:07:00</t>
+    <t>2017-02-09 08:09:08</t>
   </si>
   <si>
     <t>b013591f-7584-4a73-a059-a39a2aac7c99.408e5bacc2e22a8dd0b7d42bca0f848975663a38.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:13:45</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 08:13:45</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-09 08:18:33</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-09 08:18:15</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:19:59</t>
+  </si>
+  <si>
+    <t>TestHandback_201702090419</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 08:15:19</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:20:26</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>.md</t>
   </si>
   <si>
+    <t>2017-02-09 08:32:07</t>
+  </si>
+  <si>
     <t>46e7d409-6e68-46a2-9d75-759b74da1a0f.png</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>1a127ea0-56a1-44cc-b973-905a48545852.795fc68c8e3aa133e28a0d5f269cd4dabfbd5e3b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-09 08:31:47</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:32:40</t>
+  </si>
+  <si>
     <t>c74b6955b5056f23d60616679dd4f4f8039c9a04.png</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>1a127ea0-56a1-44cc-b973-905a48545852.795fc68c8e3aa133e28a0d5f269cd4dabfbd5e3b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:33:06</t>
   </si>
   <si>
     <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.79b07a0a33832e00a79909b160bb79b759d806c3.de-de.xlf</t>
@@ -384,15 +396,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -409,10 +421,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>14</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,54 +625,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,54 +1009,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>0b6d78ba-63e1-411f-a013-68299c997229.md</t>
+  </si>
+  <si>
+    <t>e2e\0b6d78ba-63e1-411f-a013-68299c997229.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:57:14</t>
+  </si>
+  <si>
+    <t>0c75748c-8a8a-45ad-8faa-8c16b9dac918.md</t>
+  </si>
+  <si>
+    <t>e2e\0c75748c-8a8a-45ad-8faa-8c16b9dac918.md</t>
+  </si>
+  <si>
     <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.md</t>
   </si>
   <si>
     <t>e2e\248ad8c4-bc0e-4220-a662-2c6d073c547f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 08:37:03</t>
   </si>
   <si>
@@ -58,156 +73,168 @@
     <t>e2e\3357df7a-a02e-4071-826c-56dba72afba8.md</t>
   </si>
   <si>
-    <t>N\A</t>
+    <t>2017-02-09 08:54:56</t>
+  </si>
+  <si>
+    <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
+  </si>
+  <si>
+    <t>e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:34:16</t>
+  </si>
+  <si>
+    <t>98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
+  </si>
+  <si>
+    <t>e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:51:33</t>
+  </si>
+  <si>
+    <t>a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
+  </si>
+  <si>
+    <t>e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
+  </si>
+  <si>
+    <t>bb304698-c799-4e58-ba88-4614a2894556.md</t>
+  </si>
+  <si>
+    <t>e2e\bb304698-c799-4e58-ba88-4614a2894556.md</t>
+  </si>
+  <si>
+    <t>bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
+  </si>
+  <si>
+    <t>e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:29:21</t>
+  </si>
+  <si>
+    <t>cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
+  </si>
+  <si>
+    <t>e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:41:04</t>
+  </si>
+  <si>
+    <t>d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
+  </si>
+  <si>
+    <t>e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
+  </si>
+  <si>
+    <t>e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
+  </si>
+  <si>
+    <t>e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:44:57</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0b6d78ba-63e1-411f-a013-68299c997229.8b9ef326f83c0778c3e7533967f71ac385549b50.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:56:48</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-09 08:57:58</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0c75748c-8a8a-45ad-8faa-8c16b9dac918.ba4e2e1cfc3bbe789d800b1f684d62d19d0e8d92.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.7106a28f6154ef6660d37e8178174d7c61a274a4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:36:42</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:37:59</t>
+  </si>
+  <si>
+    <t>3357df7a-a02e-4071-826c-56dba72afba8.e025415c0acb5e97d892e90aff7cf290ff07dfb9.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-09 08:54:27</t>
   </si>
   <si>
-    <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
-  </si>
-  <si>
-    <t>e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:34:16</t>
-  </si>
-  <si>
-    <t>98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
-  </si>
-  <si>
-    <t>e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:51:33</t>
-  </si>
-  <si>
-    <t>a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
-  </si>
-  <si>
-    <t>e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
-  </si>
-  <si>
-    <t>bb304698-c799-4e58-ba88-4614a2894556.md</t>
-  </si>
-  <si>
-    <t>e2e\bb304698-c799-4e58-ba88-4614a2894556.md</t>
-  </si>
-  <si>
-    <t>bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
-  </si>
-  <si>
-    <t>e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:29:21</t>
-  </si>
-  <si>
-    <t>cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
-  </si>
-  <si>
-    <t>e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:41:04</t>
-  </si>
-  <si>
-    <t>d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
-  </si>
-  <si>
-    <t>e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
-  </si>
-  <si>
-    <t>e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
-  </si>
-  <si>
-    <t>e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:44:57</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.7106a28f6154ef6660d37e8178174d7c61a274a4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:36:42</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-09 08:37:59</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>3357df7a-a02e-4071-826c-56dba72afba8.e025415c0acb5e97d892e90aff7cf290ff07dfb9.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-09 08:55:48</t>
   </si>
   <si>
@@ -268,12 +295,24 @@
     <t>2017-02-09 08:47:05</t>
   </si>
   <si>
+    <t>0b6d78ba-63e1-411f-a013-68299c997229.8b9ef326f83c0778c3e7533967f71ac385549b50.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:58:28</t>
+  </si>
+  <si>
+    <t>0c75748c-8a8a-45ad-8faa-8c16b9dac918.ba4e2e1cfc3bbe789d800b1f684d62d19d0e8d92.de-de.xlf</t>
+  </si>
+  <si>
     <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.7106a28f6154ef6660d37e8178174d7c61a274a4.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 08:38:26</t>
   </si>
   <si>
+    <t>3357df7a-a02e-4071-826c-56dba72afba8.e025415c0acb5e97d892e90aff7cf290ff07dfb9.de-de.xlf</t>
+  </si>
+  <si>
     <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.79b07a0a33832e00a79909b160bb79b759d806c3.de-de.xlf</t>
   </si>
   <si>
@@ -284,6 +323,9 @@
   </si>
   <si>
     <t>2017-02-09 08:52:49</t>
+  </si>
+  <si>
+    <t>bb304698-c799-4e58-ba88-4614a2894556.9b045d5379769854361547ebc9096820702fd961.de-de.xlf</t>
   </si>
   <si>
     <t>bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.5cade60a94eb66f63d04150260341a108fd026e4.de-de.xlf</t>
@@ -361,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -388,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -415,8 +457,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G13" headerRowCount="1">
+  <autoFilter ref="A1:G13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -432,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,90 +546,90 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +649,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
@@ -627,61 +669,103 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId11"/>
+    <hyperlink ref="B2" display="e2e\0b6d78ba-63e1-411f-a013-68299c997229.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId12"/>
+    <hyperlink ref="B13" display="e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -692,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,58 +804,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -785,49 +869,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -841,54 +925,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -897,54 +981,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -953,54 +1037,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1009,54 +1093,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1065,49 +1149,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1121,54 +1205,54 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1177,54 +1261,54 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1233,54 +1317,54 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -1289,73 +1373,189 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="N12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>60</v>
+      <c r="F13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId21"/>
+    <hyperlink ref="A2" display="0b6d78ba-63e1-411f-a013-68299c997229.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="0b6d78ba-63e1-411f-a013-68299c997229.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1366,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1394,58 +1594,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1459,54 +1659,54 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1515,54 +1715,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1571,54 +1771,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1627,54 +1827,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1683,54 +1883,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1739,54 +1939,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1795,54 +1995,54 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1851,69 +2051,301 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>60</v>
+      <c r="F13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId17"/>
+    <hyperlink ref="A2" display="0b6d78ba-63e1-411f-a013-68299c997229.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="0b6d78ba-63e1-411f-a013-68299c997229.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>File Name</t>
   </si>
@@ -73,183 +73,183 @@
     <t>e2e\29cb72ea-8c85-4215-abee-c26e8c5bb6e5.md</t>
   </si>
   <si>
-    <t>N\A</t>
+    <t>2017-02-09 09:00:22</t>
+  </si>
+  <si>
+    <t>3357df7a-a02e-4071-826c-56dba72afba8.md</t>
+  </si>
+  <si>
+    <t>e2e\3357df7a-a02e-4071-826c-56dba72afba8.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:54:56</t>
+  </si>
+  <si>
+    <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
+  </si>
+  <si>
+    <t>e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:34:16</t>
+  </si>
+  <si>
+    <t>98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
+  </si>
+  <si>
+    <t>e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:51:33</t>
+  </si>
+  <si>
+    <t>a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
+  </si>
+  <si>
+    <t>e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
+  </si>
+  <si>
+    <t>bb304698-c799-4e58-ba88-4614a2894556.md</t>
+  </si>
+  <si>
+    <t>e2e\bb304698-c799-4e58-ba88-4614a2894556.md</t>
+  </si>
+  <si>
+    <t>bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
+  </si>
+  <si>
+    <t>e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:29:21</t>
+  </si>
+  <si>
+    <t>bce7fc2d-e088-47ce-a68e-4f93311db7f3.md</t>
+  </si>
+  <si>
+    <t>e2e\bce7fc2d-e088-47ce-a68e-4f93311db7f3.md</t>
+  </si>
+  <si>
+    <t>cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
+  </si>
+  <si>
+    <t>e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:41:04</t>
+  </si>
+  <si>
+    <t>d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
+  </si>
+  <si>
+    <t>e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
+  </si>
+  <si>
+    <t>e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
+  </si>
+  <si>
+    <t>e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:44:57</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0b6d78ba-63e1-411f-a013-68299c997229.8b9ef326f83c0778c3e7533967f71ac385549b50.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:56:48</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-09 08:57:58</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0c75748c-8a8a-45ad-8faa-8c16b9dac918.ba4e2e1cfc3bbe789d800b1f684d62d19d0e8d92.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.7106a28f6154ef6660d37e8178174d7c61a274a4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:36:42</t>
+  </si>
+  <si>
+    <t>2017-02-09 08:37:59</t>
+  </si>
+  <si>
+    <t>29cb72ea-8c85-4215-abee-c26e8c5bb6e5.33ee9757bb9305bab6c63b25bca572fd942ac3c1.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-09 08:59:51</t>
   </si>
   <si>
-    <t>3357df7a-a02e-4071-826c-56dba72afba8.md</t>
-  </si>
-  <si>
-    <t>e2e\3357df7a-a02e-4071-826c-56dba72afba8.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:54:56</t>
-  </si>
-  <si>
-    <t>69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
-  </si>
-  <si>
-    <t>e2e\69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:34:16</t>
-  </si>
-  <si>
-    <t>98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
-  </si>
-  <si>
-    <t>e2e\98291cba-c091-4063-9bb9-af7471a13cc1.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:51:33</t>
-  </si>
-  <si>
-    <t>a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
-  </si>
-  <si>
-    <t>e2e\a20a3827-cda5-4b15-b9a2-c71f7419edc3.md</t>
-  </si>
-  <si>
-    <t>bb304698-c799-4e58-ba88-4614a2894556.md</t>
-  </si>
-  <si>
-    <t>e2e\bb304698-c799-4e58-ba88-4614a2894556.md</t>
-  </si>
-  <si>
-    <t>bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
-  </si>
-  <si>
-    <t>e2e\bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:29:21</t>
-  </si>
-  <si>
-    <t>bce7fc2d-e088-47ce-a68e-4f93311db7f3.md</t>
-  </si>
-  <si>
-    <t>e2e\bce7fc2d-e088-47ce-a68e-4f93311db7f3.md</t>
-  </si>
-  <si>
-    <t>cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
-  </si>
-  <si>
-    <t>e2e\cbea7538-5dfa-42de-bae8-bc405818f8b7.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:41:04</t>
-  </si>
-  <si>
-    <t>d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
-  </si>
-  <si>
-    <t>e2e\d656c820-5093-4bf0-a3d5-9f113300667b.md</t>
-  </si>
-  <si>
-    <t>e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
-  </si>
-  <si>
-    <t>e2e\e4572285-04fa-4ca0-a6b2-13dd1448b80e.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:44:57</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0b6d78ba-63e1-411f-a013-68299c997229.8b9ef326f83c0778c3e7533967f71ac385549b50.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:56:48</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-09 08:57:58</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>0c75748c-8a8a-45ad-8faa-8c16b9dac918.ba4e2e1cfc3bbe789d800b1f684d62d19d0e8d92.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>248ad8c4-bc0e-4220-a662-2c6d073c547f.7106a28f6154ef6660d37e8178174d7c61a274a4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:36:42</t>
-  </si>
-  <si>
-    <t>2017-02-09 08:37:59</t>
-  </si>
-  <si>
-    <t>29cb72ea-8c85-4215-abee-c26e8c5bb6e5.33ee9757bb9305bab6c63b25bca572fd942ac3c1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-09 09:01:09</t>
   </si>
   <si>
@@ -340,6 +340,15 @@
     <t>2017-02-09 08:38:26</t>
   </si>
   <si>
+    <t>29cb72ea-8c85-4215-abee-c26e8c5bb6e5.33ee9757bb9305bab6c63b25bca572fd942ac3c1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:02:09</t>
+  </si>
+  <si>
+    <t>API_HB2_2017020901</t>
+  </si>
+  <si>
     <t>3357df7a-a02e-4071-826c-56dba72afba8.e025415c0acb5e97d892e90aff7cf290ff07dfb9.de-de.xlf</t>
   </si>
   <si>
@@ -362,6 +371,9 @@
   </si>
   <si>
     <t>2017-02-09 08:30:52</t>
+  </si>
+  <si>
+    <t>bce7fc2d-e088-47ce-a68e-4f93311db7f3.c2477c5868afb2ad5b51f98c5257efc6b1b9056c.de-de.xlf</t>
   </si>
   <si>
     <t>cbea7538-5dfa-42de-bae8-bc405818f8b7.2170d5b660870e7a236b2b7bd974565f2cac0136.de-de.xlf</t>
@@ -460,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
-  <autoFilter ref="A1:R13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R15" headerRowCount="1">
+  <autoFilter ref="A1:R15"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -616,78 +628,78 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -704,11 +716,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
@@ -719,36 +731,36 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
@@ -756,39 +768,39 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
@@ -799,27 +811,27 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1053,49 +1065,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1109,28 +1121,28 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>78</v>
@@ -1139,24 +1151,24 @@
         <v>79</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>80</v>
@@ -1180,10 +1192,10 @@
         <v>81</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>80</v>
@@ -1195,24 +1207,24 @@
         <v>83</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1221,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>84</v>
@@ -1236,10 +1248,10 @@
         <v>85</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>84</v>
@@ -1248,27 +1260,27 @@
         <v>86</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1277,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>87</v>
@@ -1292,10 +1304,10 @@
         <v>88</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>87</v>
@@ -1307,24 +1319,24 @@
         <v>90</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1333,54 +1345,54 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="M9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1389,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>91</v>
@@ -1404,10 +1416,10 @@
         <v>81</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>91</v>
@@ -1419,24 +1431,24 @@
         <v>83</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -1445,13 +1457,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>92</v>
@@ -1460,10 +1472,10 @@
         <v>93</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>92</v>
@@ -1472,27 +1484,27 @@
         <v>94</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -1501,25 +1513,25 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>95</v>
@@ -1531,24 +1543,24 @@
         <v>79</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -1557,13 +1569,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>96</v>
@@ -1572,10 +1584,10 @@
         <v>97</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>96</v>
@@ -1584,27 +1596,27 @@
         <v>98</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -1613,13 +1625,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>99</v>
@@ -1628,10 +1640,10 @@
         <v>88</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>99</v>
@@ -1643,24 +1655,24 @@
         <v>90</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -1669,13 +1681,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>100</v>
@@ -1684,10 +1696,10 @@
         <v>101</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>100</v>
@@ -1696,22 +1708,22 @@
         <v>102</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1754,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1782,58 +1794,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -1847,13 +1859,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>103</v>
@@ -1862,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -1874,22 +1886,22 @@
         <v>104</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1903,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>105</v>
@@ -1918,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -1930,22 +1942,22 @@
         <v>104</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1959,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>106</v>
@@ -1974,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -1986,27 +1998,27 @@
         <v>107</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2015,54 +2027,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>108</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2071,54 +2083,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2127,54 +2139,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2183,54 +2195,54 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2239,54 +2251,54 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2295,54 +2307,54 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2351,54 +2363,54 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -2407,54 +2419,54 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -2463,49 +2475,161 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2516,24 +2640,28 @@
     <hyperlink ref="J3" display="0c75748c-8a8a-45ad-8faa-8c16b9dac918.md" r:id="rId5"/>
     <hyperlink ref="A4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId6"/>
     <hyperlink ref="J4" display="248ad8c4-bc0e-4220-a662-2c6d073c547f.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId22"/>
-    <hyperlink ref="J12" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId24"/>
-    <hyperlink ref="J13" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId25"/>
+    <hyperlink ref="A5" display="29cb72ea-8c85-4215-abee-c26e8c5bb6e5.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="29cb72ea-8c85-4215-abee-c26e8c5bb6e5.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="3357df7a-a02e-4071-826c-56dba72afba8.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="69d88851-a5fd-4e4e-b9d3-0fc38b73b931.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="98291cba-c091-4063-9bb9-af7471a13cc1.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="a20a3827-cda5-4b15-b9a2-c71f7419edc3.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="bb304698-c799-4e58-ba88-4614a2894556.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="bb9981e0-f21e-43d8-a8f2-b730c8ffb95f.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="bce7fc2d-e088-47ce-a68e-4f93311db7f3.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="bce7fc2d-e088-47ce-a68e-4f93311db7f3.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="cbea7538-5dfa-42de-bae8-bc405818f8b7.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId26"/>
+    <hyperlink ref="J14" display="d656c820-5093-4bf0-a3d5-9f113300667b.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId28"/>
+    <hyperlink ref="J15" display="e4572285-04fa-4ca0-a6b2-13dd1448b80e.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:15:12</t>
+    <t>2017-02-09 09:17:43</t>
   </si>
   <si>
     <t>ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md</t>
@@ -133,13 +133,13 @@
     <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 09:14:49</t>
+    <t>2017-02-09 09:17:19</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 09:15:58</t>
+    <t>2017-02-09 09:18:29</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 09:16:28</t>
+    <t>2017-02-09 09:18:57</t>
   </si>
   <si>
     <t>d7f33c70-05aa-4ad7-a612-d574772ec7d8.b21d747795926e5e9f8f28898e3a20c811cdb8c9.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:17:43</t>
+    <t>2017-02-09 09:20:16</t>
   </si>
   <si>
     <t>ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md</t>
@@ -133,13 +133,13 @@
     <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 09:17:19</t>
+    <t>2017-02-09 09:19:54</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 09:18:29</t>
+    <t>2017-02-09 09:20:57</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 09:18:57</t>
+    <t>2017-02-09 09:21:25</t>
   </si>
   <si>
     <t>d7f33c70-05aa-4ad7-a612-d574772ec7d8.b21d747795926e5e9f8f28898e3a20c811cdb8c9.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>476783b7-0ebb-41d0-b54f-620bea90da3c.md</t>
-  </si>
-  <si>
-    <t>e2e\476783b7-0ebb-41d0-b54f-620bea90da3c.md</t>
+    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.md</t>
+  </si>
+  <si>
+    <t>e2e\bed5404c-3256-4c1d-ad8f-7c29749cd221.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:20:16</t>
-  </si>
-  <si>
-    <t>ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:11:32</t>
-  </si>
-  <si>
-    <t>ffffff594e6989-7033-4531-a631-bb632fda3bb6.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff594e6989-7033-4531-a631-bb632fda3bb6.md</t>
+    <t>2017-02-09 09:22:44</t>
+  </si>
+  <si>
+    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.md</t>
+  </si>
+  <si>
+    <t>e2e\c8920393-291e-47d9-9c35-ec5ff08f9b7b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:19:54</t>
+    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.f75b6f96b98a962e16354ccfb00331faa59f17d5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:22:21</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 09:20:57</t>
+    <t>2017-02-09 09:23:37</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>d7f33c70-05aa-4ad7-a612-d574772ec7d8.b21d747795926e5e9f8f28898e3a20c811cdb8c9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:11:00</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:12:14</t>
-  </si>
-  <si>
-    <t>476783b7-0ebb-41d0-b54f-620bea90da3c.e6819d7bbb513a5694c4b6c3d0b309cf02fc52ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:21:25</t>
-  </si>
-  <si>
-    <t>d7f33c70-05aa-4ad7-a612-d574772ec7d8.b21d747795926e5e9f8f28898e3a20c811cdb8c9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:12:41</t>
+    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.f497906474428966a64d7f5ce7aa386ae5b87b84.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.f75b6f96b98a962e16354ccfb00331faa59f17d5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:24:09</t>
+  </si>
+  <si>
+    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.f497906474428966a64d7f5ce7aa386ae5b87b84.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\476783b7-0ebb-41d0-b54f-620bea90da3c.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff594e6989-7033-4531-a631-bb632fda3bb6.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="476783b7-0ebb-41d0-b54f-620bea90da3c.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="476783b7-0ebb-41d0-b54f-620bea90da3c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff594e6989-7033-4531-a631-bb632fda3bb6.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff594e6989-7033-4531-a631-bb632fda3bb6.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="476783b7-0ebb-41d0-b54f-620bea90da3c.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="476783b7-0ebb-41d0-b54f-620bea90da3c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff053ed6fe-9668-4ed5-abf2-084c2d724b4d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff594e6989-7033-4531-a631-bb632fda3bb6.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff594e6989-7033-4531-a631-bb632fda3bb6.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.md</t>
-  </si>
-  <si>
-    <t>e2e\bed5404c-3256-4c1d-ad8f-7c29749cd221.md</t>
+    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.md</t>
+  </si>
+  <si>
+    <t>e2e\cb1d4349-0e19-450f-b29b-f54d6740c1e9.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:22:44</t>
-  </si>
-  <si>
-    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.md</t>
-  </si>
-  <si>
-    <t>e2e\c8920393-291e-47d9-9c35-ec5ff08f9b7b.md</t>
+    <t>2017-02-09 09:31:02</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.f75b6f96b98a962e16354ccfb00331faa59f17d5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:22:21</t>
+    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.54e49395456a68b77907d64012d10a0740b5ae78.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:30:39</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 09:23:37</t>
+    <t>2017-02-09 09:31:44</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.f497906474428966a64d7f5ce7aa386ae5b87b84.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>bed5404c-3256-4c1d-ad8f-7c29749cd221.f75b6f96b98a962e16354ccfb00331faa59f17d5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:24:09</t>
-  </si>
-  <si>
-    <t>c8920393-291e-47d9-9c35-ec5ff08f9b7b.f497906474428966a64d7f5ce7aa386ae5b87b84.de-de.xlf</t>
+    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.54e49395456a68b77907d64012d10a0740b5ae78.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:32:13</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="bed5404c-3256-4c1d-ad8f-7c29749cd221.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="c8920393-291e-47d9-9c35-ec5ff08f9b7b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.md</t>
-  </si>
-  <si>
-    <t>e2e\cb1d4349-0e19-450f-b29b-f54d6740c1e9.md</t>
+    <t>06605d30-a0a8-472b-8fa3-6f10e3bae56c.md</t>
+  </si>
+  <si>
+    <t>e2e\06605d30-a0a8-472b-8fa3-6f10e3bae56c.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:31:02</t>
+    <t>2017-02-09 09:38:49</t>
+  </si>
+  <si>
+    <t>32385396-5055-45ef-8731-9774dff4db0e.md</t>
+  </si>
+  <si>
+    <t>e2e\32385396-5055-45ef-8731-9774dff4db0e.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:37:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.54e49395456a68b77907d64012d10a0740b5ae78.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:30:39</t>
+    <t>06605d30-a0a8-472b-8fa3-6f10e3bae56c.230e561e228ff076c6c011518a567862c8c7c783.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:38:29</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 09:31:44</t>
+    <t>2017-02-09 09:39:38</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>cb1d4349-0e19-450f-b29b-f54d6740c1e9.54e49395456a68b77907d64012d10a0740b5ae78.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 09:32:13</t>
+    <t>32385396-5055-45ef-8731-9774dff4db0e.419f41cdd1dea672225752af5f50b10dc1def735.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:37:11</t>
+  </si>
+  <si>
+    <t>06605d30-a0a8-472b-8fa3-6f10e3bae56c.230e561e228ff076c6c011518a567862c8c7c783.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:40:07</t>
+  </si>
+  <si>
+    <t>32385396-5055-45ef-8731-9774dff4db0e.419f41cdd1dea672225752af5f50b10dc1def735.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\06605d30-a0a8-472b-8fa3-6f10e3bae56c.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\32385396-5055-45ef-8731-9774dff4db0e.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="06605d30-a0a8-472b-8fa3-6f10e3bae56c.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="06605d30-a0a8-472b-8fa3-6f10e3bae56c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="32385396-5055-45ef-8731-9774dff4db0e.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="32385396-5055-45ef-8731-9774dff4db0e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="cb1d4349-0e19-450f-b29b-f54d6740c1e9.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="06605d30-a0a8-472b-8fa3-6f10e3bae56c.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="06605d30-a0a8-472b-8fa3-6f10e3bae56c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="32385396-5055-45ef-8731-9774dff4db0e.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="32385396-5055-45ef-8731-9774dff4db0e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:45:07</t>
+  </si>
+  <si>
+    <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
+  </si>
+  <si>
+    <t>e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 09:45:07</t>
-  </si>
-  <si>
-    <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
-  </si>
-  <si>
-    <t>e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
+    <t>2017-02-09 09:47:57</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +145,12 @@
     <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.4cfe42f02c9ab8e0a823fe9688e1e702d22c0ada.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-09 09:47:36</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:49:05</t>
+  </si>
+  <si>
     <t>1ebf3363-8c0c-46ec-924f-82df1384e230.48041228292873ed592d0cf6afc48d10232dec1f.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.4cfe42f02c9ab8e0a823fe9688e1e702d22c0ada.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:49:32</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,13 +357,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +526,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-09 09:47:57</t>
   </si>
   <si>
+    <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.md</t>
+  </si>
+  <si>
+    <t>e2e\ac481a19-cbc4-42bf-abde-74a8bf5386cb.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:51:06</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-09 09:49:05</t>
   </si>
   <si>
+    <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.c7a89fd2c3843e97e05643dfcb1bb33563e00ba4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:50:43</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:51:50</t>
+  </si>
+  <si>
     <t>1ebf3363-8c0c-46ec-924f-82df1384e230.48041228292873ed592d0cf6afc48d10232dec1f.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-09 09:49:32</t>
+  </si>
+  <si>
+    <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.c7a89fd2c3843e97e05643dfcb1bb33563e00ba4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:52:17</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId3"/>
     <hyperlink ref="A3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId4"/>
     <hyperlink ref="J3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId3"/>
     <hyperlink ref="A3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId4"/>
     <hyperlink ref="J3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -52,18 +52,45 @@
     <t>2017-02-09 09:45:07</t>
   </si>
   <si>
+    <t>0009a8cc-0c5d-40a8-97a2-14745712d2b3.md</t>
+  </si>
+  <si>
+    <t>e2e\0009a8cc-0c5d-40a8-97a2-14745712d2b3.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:53:51</t>
+  </si>
+  <si>
     <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
   </si>
   <si>
     <t>e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 09:47:57</t>
   </si>
   <si>
+    <t>80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md</t>
+  </si>
+  <si>
+    <t>e2e\80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md</t>
+  </si>
+  <si>
+    <t>819ca40e-01ca-4a9f-9172-652a4b6df281.md</t>
+  </si>
+  <si>
+    <t>e2e\819ca40e-01ca-4a9f-9172-652a4b6df281.md</t>
+  </si>
+  <si>
+    <t>967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md</t>
+  </si>
+  <si>
+    <t>e2e\967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md</t>
+  </si>
+  <si>
     <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.md</t>
   </si>
   <si>
@@ -151,6 +178,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>0009a8cc-0c5d-40a8-97a2-14745712d2b3.3dc3702707e99af75025493137020089d263d8e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:53:32</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:55:05</t>
+  </si>
+  <si>
     <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.4cfe42f02c9ab8e0a823fe9688e1e702d22c0ada.zh-cn.xlf</t>
   </si>
   <si>
@@ -160,6 +196,15 @@
     <t>2017-02-09 09:49:05</t>
   </si>
   <si>
+    <t>80a6e3ae-0ad3-4c6d-8809-91f083fd9083.6ed158574ed4378e3de74506f7c94fb4591b39ee.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>819ca40e-01ca-4a9f-9172-652a4b6df281.afaf124f5b5e227e0723af1561e2d2cafaa2d982.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.b2b1ce5b8d24e7d23fd4b044f711d9cd117442dd.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.c7a89fd2c3843e97e05643dfcb1bb33563e00ba4.zh-cn.xlf</t>
   </si>
   <si>
@@ -175,10 +220,25 @@
     <t>2017-02-09 09:46:53</t>
   </si>
   <si>
+    <t>0009a8cc-0c5d-40a8-97a2-14745712d2b3.3dc3702707e99af75025493137020089d263d8e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 09:55:34</t>
+  </si>
+  <si>
     <t>7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.4cfe42f02c9ab8e0a823fe9688e1e702d22c0ada.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 09:49:32</t>
+  </si>
+  <si>
+    <t>80a6e3ae-0ad3-4c6d-8809-91f083fd9083.6ed158574ed4378e3de74506f7c94fb4591b39ee.de-de.xlf</t>
+  </si>
+  <si>
+    <t>819ca40e-01ca-4a9f-9172-652a4b6df281.afaf124f5b5e227e0723af1561e2d2cafaa2d982.de-de.xlf</t>
+  </si>
+  <si>
+    <t>967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.b2b1ce5b8d24e7d23fd4b044f711d9cd117442dd.de-de.xlf</t>
   </si>
   <si>
     <t>ac481a19-cbc4-42bf-abde-74a8bf5386cb.c7a89fd2c3843e97e05643dfcb1bb33563e00ba4.de-de.xlf</t>
@@ -241,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +470,95 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\0009a8cc-0c5d-40a8-97a2-14745712d2b3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\819ca40e-01ca-4a9f-9172-652a4b6df281.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +597,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +662,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +718,49 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -630,59 +774,291 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="0009a8cc-0c5d-40a8-97a2-14745712d2b3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0009a8cc-0c5d-40a8-97a2-14745712d2b3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="819ca40e-01ca-4a9f-9172-652a4b6df281.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="819ca40e-01ca-4a9f-9172-652a4b6df281.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +1097,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +1162,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +1218,49 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -898,59 +1274,291 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ebf3363-8c0c-46ec-924f-82df1384e230.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="0009a8cc-0c5d-40a8-97a2-14745712d2b3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0009a8cc-0c5d-40a8-97a2-14745712d2b3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7b9b633b-32b1-4527-ae6b-8e0e94fa10eb.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="80a6e3ae-0ad3-4c6d-8809-91f083fd9083.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="819ca40e-01ca-4a9f-9172-652a4b6df281.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="819ca40e-01ca-4a9f-9172-652a4b6df281.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="967d4d3b-ce70-47e9-84c6-4fe0368dd2ee.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="ac481a19-cbc4-42bf-abde-74a8bf5386cb.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 10:10:29</t>
+    <t>2017-02-09 10:13:28</t>
   </si>
   <si>
     <t>716f89b0-12ce-4dbb-882d-7f62e50ce2b3.md</t>
@@ -115,7 +115,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -124,13 +124,13 @@
     <t>4f9cad43-9d09-4a8f-8b78-e55260c6d537.a32078622b89f3c625e0b3170e3dac76cf31d122.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 10:09:25</t>
+    <t>2017-02-09 10:13:07</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 10:11:49</t>
+    <t>2017-02-09 10:14:03</t>
   </si>
   <si>
     <t>True</t>
@@ -142,7 +142,7 @@
     <t>4f9cad43-9d09-4a8f-8b78-e55260c6d537.a32078622b89f3c625e0b3170e3dac76cf31d122.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 10:12:19</t>
+    <t>2017-02-09 10:14:38</t>
   </si>
   <si>
     <t>716f89b0-12ce-4dbb-882d-7f62e50ce2b3.0b4f02966a0683759061e45f236ac0c02dbe8d98.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 13:44:44</t>
+    <t>2017-02-09 13:48:07</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>24ccb9c7-e03d-4498-af8f-4682dacd4df7.cd8327d09aff476eb6d31156b656374b74c4daac.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 13:43:29</t>
+    <t>2017-02-09 13:47:47</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 13:45:46</t>
+    <t>2017-02-09 13:48:32</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>24ccb9c7-e03d-4498-af8f-4682dacd4df7.cd8327d09aff476eb6d31156b656374b74c4daac.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 13:46:11</t>
+    <t>2017-02-09 13:48:55</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 13:57:19</t>
+    <t>2017-02-09 14:00:46</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>c646d137-6169-4650-991f-2d337c5289f5.ce7e24aa8812a7a914d4129b3432637907c4e7cc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 13:56:09</t>
+    <t>2017-02-09 14:00:28</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 13:58:27</t>
+    <t>2017-02-09 14:01:15</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>c646d137-6169-4650-991f-2d337c5289f5.ce7e24aa8812a7a914d4129b3432637907c4e7cc.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 13:58:53</t>
+    <t>2017-02-09 14:01:38</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -46,10 +46,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-09 14:15:08</t>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:17:41</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>ae7f0526-159b-4eaf-aafd-6e77a2be2935.812c5817f533bb785c302ff8fe050c1d4d1fd7d2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 14:14:01</t>
+    <t>2017-02-09 14:17:22</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 14:16:16</t>
+    <t>2017-02-09 14:19:03</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>ae7f0526-159b-4eaf-aafd-6e77a2be2935.812c5817f533bb785c302ff8fe050c1d4d1fd7d2.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 14:16:42</t>
+    <t>2017-02-09 14:19:28</t>
   </si>
 </sst>
 </file>
@@ -271,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -492,7 +492,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-09 14:46:33</t>
   </si>
   <si>
+    <t>6fde7064-d1af-41a6-b97c-969e05d37b46.md</t>
+  </si>
+  <si>
+    <t>e2e\6fde7064-d1af-41a6-b97c-969e05d37b46.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:54:15</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>6fde7064-d1af-41a6-b97c-969e05d37b46.708e85bd7c8c0976c5bb35177627025f54c992a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:53:53</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:54:48</t>
+  </si>
+  <si>
     <t>c3c7d871-9c36-4fc6-ac40-7fab9b060c23.c93971e063f261a42e8255c29be2744007b5008e.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 14:48:35</t>
+  </si>
+  <si>
+    <t>6fde7064-d1af-41a6-b97c-969e05d37b46.708e85bd7c8c0976c5bb35177627025f54c992a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:55:15</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId2"/>
     <hyperlink ref="J2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId2"/>
     <hyperlink ref="J2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-09 14:54:15</t>
   </si>
   <si>
+    <t>7a6310d6-2100-4026-8777-6ba687da0d3c.md</t>
+  </si>
+  <si>
+    <t>e2e\7a6310d6-2100-4026-8777-6ba687da0d3c.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:58:03</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-09 14:54:48</t>
   </si>
   <si>
+    <t>7a6310d6-2100-4026-8777-6ba687da0d3c.a3bdf615d8762c82663e5c71f8fa2b08332124e8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:57:45</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:58:41</t>
+  </si>
+  <si>
     <t>c3c7d871-9c36-4fc6-ac40-7fab9b060c23.c93971e063f261a42e8255c29be2744007b5008e.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-09 14:55:15</t>
+  </si>
+  <si>
+    <t>7a6310d6-2100-4026-8777-6ba687da0d3c.a3bdf615d8762c82663e5c71f8fa2b08332124e8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 14:59:07</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7a6310d6-2100-4026-8777-6ba687da0d3c.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId3"/>
     <hyperlink ref="A3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId4"/>
     <hyperlink ref="J3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7a6310d6-2100-4026-8777-6ba687da0d3c.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7a6310d6-2100-4026-8777-6ba687da0d3c.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="c3c7d871-9c36-4fc6-ac40-7fab9b060c23.md" r:id="rId3"/>
     <hyperlink ref="A3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId4"/>
     <hyperlink ref="J3" display="6fde7064-d1af-41a6-b97c-969e05d37b46.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7a6310d6-2100-4026-8777-6ba687da0d3c.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="7a6310d6-2100-4026-8777-6ba687da0d3c.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>e2e\7a6310d6-2100-4026-8777-6ba687da0d3c.md</t>
   </si>
   <si>
-    <t>2017-02-09 14:58:03</t>
+    <t>2017-02-09 15:00:17</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,10 +163,10 @@
     <t>7a6310d6-2100-4026-8777-6ba687da0d3c.a3bdf615d8762c82663e5c71f8fa2b08332124e8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 14:57:45</t>
-  </si>
-  <si>
-    <t>2017-02-09 14:58:41</t>
+    <t>2017-02-09 14:59:57</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:00:54</t>
   </si>
   <si>
     <t>c3c7d871-9c36-4fc6-ac40-7fab9b060c23.c93971e063f261a42e8255c29be2744007b5008e.de-de.xlf</t>
@@ -184,7 +184,7 @@
     <t>7a6310d6-2100-4026-8777-6ba687da0d3c.a3bdf615d8762c82663e5c71f8fa2b08332124e8.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 14:59:07</t>
+    <t>2017-02-09 15:01:21</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:06:01</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 15:06:01</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-09 15:11:21</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-09 15:11:02</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:12:48</t>
+  </si>
+  <si>
+    <t>TestHandback_201702091112</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 15:07:40</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:13:13</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>.md</t>
   </si>
   <si>
+    <t>2017-02-09 15:26:27</t>
+  </si>
+  <si>
     <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>5a779828-e74f-4d8a-b16b-f02ee3ccd84f.4ab794fcfc6209f8f493784a71b6fb6bcafddbe6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-09 15:26:09</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:27:04</t>
+  </si>
+  <si>
     <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.c0c37c507cced4a8799fb5b2f8e6f64c1cb1f958.zh-cn.xlf</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>5a779828-e74f-4d8a-b16b-f02ee3ccd84f.4ab794fcfc6209f8f493784a71b6fb6bcafddbe6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:27:30</t>
   </si>
   <si>
     <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.c0c37c507cced4a8799fb5b2f8e6f64c1cb1f958.de-de.xlf</t>
@@ -384,15 +396,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
@@ -409,10 +421,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,54 +625,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,54 +1009,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -46,10 +46,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:33:12</t>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:34:00</t>
   </si>
   <si>
     <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
@@ -58,9 +58,6 @@
     <t>e2e\66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 15:28:35</t>
   </si>
   <si>
@@ -154,13 +151,13 @@
     <t>1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.dbcf5c2ea8431c96ff1b5f4715251178458821fe.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 15:32:53</t>
+    <t>2017-02-09 15:33:42</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 15:34:38</t>
+    <t>2017-02-09 15:36:00</t>
   </si>
   <si>
     <t>True</t>
@@ -196,7 +193,7 @@
     <t>1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.dbcf5c2ea8431c96ff1b5f4715251178458821fe.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 15:35:05</t>
+    <t>2017-02-09 15:36:28</t>
   </si>
   <si>
     <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.c0c37c507cced4a8799fb5b2f8e6f64c1cb1f958.de-de.xlf</t>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,73 +408,73 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,220 +640,220 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,220 +1024,220 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>File Name</t>
   </si>
@@ -49,165 +49,165 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>N\A</t>
+    <t>2017-02-09 15:54:56</t>
+  </si>
+  <si>
+    <t>1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md</t>
+  </si>
+  <si>
+    <t>e2e\1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:34:00</t>
+  </si>
+  <si>
+    <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
+  </si>
+  <si>
+    <t>e2e\66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:28:35</t>
+  </si>
+  <si>
+    <t>67a4bf2a-857a-44bb-836c-2e83353fd72a.md</t>
+  </si>
+  <si>
+    <t>e2e\67a4bf2a-857a-44bb-836c-2e83353fd72a.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:30:55</t>
+  </si>
+  <si>
+    <t>6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md</t>
+  </si>
+  <si>
+    <t>e2e\6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:42:13</t>
+  </si>
+  <si>
+    <t>76d8275c-ca4f-4750-9228-10c55555d8fe.md</t>
+  </si>
+  <si>
+    <t>e2e\76d8275c-ca4f-4750-9228-10c55555d8fe.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:52:12</t>
+  </si>
+  <si>
+    <t>b496c58a-d855-4f01-8431-d25ebcf77a13.md</t>
+  </si>
+  <si>
+    <t>e2e\b496c58a-d855-4f01-8431-d25ebcf77a13.md</t>
+  </si>
+  <si>
+    <t>bfaf1266-f4fa-4404-8bd5-36529583a1cb.md</t>
+  </si>
+  <si>
+    <t>e2e\bfaf1266-f4fa-4404-8bd5-36529583a1cb.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:44:57</t>
+  </si>
+  <si>
+    <t>cb2cdf51-b5da-411d-9350-35d9a620515d.md</t>
+  </si>
+  <si>
+    <t>e2e\cb2cdf51-b5da-411d-9350-35d9a620515d.md</t>
+  </si>
+  <si>
+    <t>d8cadf68-7509-49e3-859d-046c114d65ed.md</t>
+  </si>
+  <si>
+    <t>e2e\d8cadf68-7509-49e3-859d-046c114d65ed.md</t>
+  </si>
+  <si>
+    <t>e1179b11-1ba8-4eb6-990c-493e5a25b275.md</t>
+  </si>
+  <si>
+    <t>e2e\e1179b11-1ba8-4eb6-990c-493e5a25b275.md</t>
+  </si>
+  <si>
+    <t>e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md</t>
+  </si>
+  <si>
+    <t>e2e\e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:23:20</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>056b4476-6f7c-47bd-b135-3151b154b0e7.20225277c5ec59d3fa70ef7665632c8a2f051d0e.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-09 15:54:33</t>
   </si>
   <si>
-    <t>1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md</t>
-  </si>
-  <si>
-    <t>e2e\1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:34:00</t>
-  </si>
-  <si>
-    <t>66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
-  </si>
-  <si>
-    <t>e2e\66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:28:35</t>
-  </si>
-  <si>
-    <t>67a4bf2a-857a-44bb-836c-2e83353fd72a.md</t>
-  </si>
-  <si>
-    <t>e2e\67a4bf2a-857a-44bb-836c-2e83353fd72a.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:30:55</t>
-  </si>
-  <si>
-    <t>6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md</t>
-  </si>
-  <si>
-    <t>e2e\6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:42:13</t>
-  </si>
-  <si>
-    <t>76d8275c-ca4f-4750-9228-10c55555d8fe.md</t>
-  </si>
-  <si>
-    <t>e2e\76d8275c-ca4f-4750-9228-10c55555d8fe.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:52:12</t>
-  </si>
-  <si>
-    <t>b496c58a-d855-4f01-8431-d25ebcf77a13.md</t>
-  </si>
-  <si>
-    <t>e2e\b496c58a-d855-4f01-8431-d25ebcf77a13.md</t>
-  </si>
-  <si>
-    <t>bfaf1266-f4fa-4404-8bd5-36529583a1cb.md</t>
-  </si>
-  <si>
-    <t>e2e\bfaf1266-f4fa-4404-8bd5-36529583a1cb.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:44:57</t>
-  </si>
-  <si>
-    <t>cb2cdf51-b5da-411d-9350-35d9a620515d.md</t>
-  </si>
-  <si>
-    <t>e2e\cb2cdf51-b5da-411d-9350-35d9a620515d.md</t>
-  </si>
-  <si>
-    <t>d8cadf68-7509-49e3-859d-046c114d65ed.md</t>
-  </si>
-  <si>
-    <t>e2e\d8cadf68-7509-49e3-859d-046c114d65ed.md</t>
-  </si>
-  <si>
-    <t>e1179b11-1ba8-4eb6-990c-493e5a25b275.md</t>
-  </si>
-  <si>
-    <t>e2e\e1179b11-1ba8-4eb6-990c-493e5a25b275.md</t>
-  </si>
-  <si>
-    <t>e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md</t>
-  </si>
-  <si>
-    <t>e2e\e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 15:23:20</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>056b4476-6f7c-47bd-b135-3151b154b0e7.20225277c5ec59d3fa70ef7665632c8a2f051d0e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -295,6 +295,15 @@
     <t>2017-02-09 15:24:47</t>
   </si>
   <si>
+    <t>056b4476-6f7c-47bd-b135-3151b154b0e7.20225277c5ec59d3fa70ef7665632c8a2f051d0e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 15:56:27</t>
+  </si>
+  <si>
+    <t>API_HB2_2017020956</t>
+  </si>
+  <si>
     <t>1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.dbcf5c2ea8431c96ff1b5f4715251178458821fe.de-de.xlf</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
   </si>
   <si>
     <t>d8cadf68-7509-49e3-859d-046c114d65ed.e30b33a236ef1ec1b84d8985576e7b0b81eee2c0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>e1179b11-1ba8-4eb6-990c-493e5a25b275.4f92bda0f48541d678da97a4a9c2b7b1ec7a081d.de-de.xlf</t>
   </si>
   <si>
     <t>e5a2dd22-5a41-48eb-9b25-8ff48199ed89.a2b3fcc1a1bfc4182e97f6725cd9c5df100a3257.de-de.xlf</t>
@@ -424,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -520,119 +532,119 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
@@ -643,36 +655,36 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
@@ -683,16 +695,16 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
       </c>
@@ -703,16 +715,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
@@ -720,30 +732,30 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -798,58 +810,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -863,19 +875,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>64</v>
@@ -884,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>65</v>
@@ -902,7 +914,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>64</v>
@@ -910,7 +922,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -919,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>67</v>
@@ -937,7 +949,7 @@
         <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>68</v>
@@ -958,7 +970,7 @@
         <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>64</v>
@@ -966,7 +978,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -975,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>67</v>
@@ -993,7 +1005,7 @@
         <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>71</v>
@@ -1014,7 +1026,7 @@
         <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>64</v>
@@ -1022,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1031,10 +1043,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>67</v>
@@ -1049,7 +1061,7 @@
         <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>74</v>
@@ -1070,7 +1082,7 @@
         <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>64</v>
@@ -1078,7 +1090,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1087,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>67</v>
@@ -1105,7 +1117,7 @@
         <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>77</v>
@@ -1126,7 +1138,7 @@
         <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>64</v>
@@ -1134,7 +1146,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1143,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>67</v>
@@ -1161,7 +1173,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>80</v>
@@ -1182,7 +1194,7 @@
         <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>64</v>
@@ -1190,7 +1202,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1199,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>67</v>
@@ -1217,7 +1229,7 @@
         <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>74</v>
@@ -1238,7 +1250,7 @@
         <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>64</v>
@@ -1246,7 +1258,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1255,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>67</v>
@@ -1273,7 +1285,7 @@
         <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>83</v>
@@ -1294,7 +1306,7 @@
         <v>64</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>64</v>
@@ -1302,7 +1314,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1311,10 +1323,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>67</v>
@@ -1329,7 +1341,7 @@
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>87</v>
@@ -1350,7 +1362,7 @@
         <v>64</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>64</v>
@@ -1358,7 +1370,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -1367,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>67</v>
@@ -1385,7 +1397,7 @@
         <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>88</v>
@@ -1406,7 +1418,7 @@
         <v>64</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>64</v>
@@ -1414,7 +1426,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -1423,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>67</v>
@@ -1435,13 +1447,13 @@
         <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>89</v>
@@ -1462,7 +1474,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>64</v>
@@ -1470,7 +1482,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -1479,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>67</v>
@@ -1497,7 +1509,7 @@
         <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>90</v>
@@ -1518,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>64</v>
@@ -1560,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1588,63 +1600,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -1653,25 +1665,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>93</v>
@@ -1680,7 +1692,7 @@
         <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>64</v>
@@ -1692,7 +1704,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>64</v>
@@ -1700,7 +1712,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1709,31 +1721,31 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>64</v>
@@ -1748,7 +1760,7 @@
         <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>64</v>
@@ -1756,7 +1768,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1765,31 +1777,31 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>64</v>
@@ -1804,7 +1816,7 @@
         <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>64</v>
@@ -1812,7 +1824,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1821,31 +1833,31 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>64</v>
@@ -1860,7 +1872,7 @@
         <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>64</v>
@@ -1868,7 +1880,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1877,31 +1889,31 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>64</v>
@@ -1916,7 +1928,7 @@
         <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>64</v>
@@ -1924,7 +1936,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1933,31 +1945,31 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>64</v>
@@ -1972,7 +1984,7 @@
         <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>64</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1989,34 +2001,34 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F8" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>64</v>
@@ -2028,7 +2040,7 @@
         <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>64</v>
@@ -2036,7 +2048,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2045,31 +2057,31 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>86</v>
@@ -2084,7 +2096,7 @@
         <v>64</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>64</v>
@@ -2092,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2101,34 +2113,34 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F10" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>64</v>
@@ -2140,7 +2152,7 @@
         <v>64</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>64</v>
@@ -2148,7 +2160,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2157,31 +2169,31 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" s="0" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>64</v>
@@ -2196,34 +2208,150 @@
         <v>64</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="67a4bf2a-857a-44bb-836c-2e83353fd72a.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="67a4bf2a-857a-44bb-836c-2e83353fd72a.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="76d8275c-ca4f-4750-9228-10c55555d8fe.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="76d8275c-ca4f-4750-9228-10c55555d8fe.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="b496c58a-d855-4f01-8431-d25ebcf77a13.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="b496c58a-d855-4f01-8431-d25ebcf77a13.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="bfaf1266-f4fa-4404-8bd5-36529583a1cb.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="bfaf1266-f4fa-4404-8bd5-36529583a1cb.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="cb2cdf51-b5da-411d-9350-35d9a620515d.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="cb2cdf51-b5da-411d-9350-35d9a620515d.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="d8cadf68-7509-49e3-859d-046c114d65ed.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="d8cadf68-7509-49e3-859d-046c114d65ed.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md" r:id="rId21"/>
+    <hyperlink ref="A2" display="056b4476-6f7c-47bd-b135-3151b154b0e7.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="056b4476-6f7c-47bd-b135-3151b154b0e7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1b6eac7b-3242-46c4-a4db-b785e7f4eaa8.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="66c7c08d-b24b-4c92-b237-7cf25b0cc27c.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="67a4bf2a-857a-44bb-836c-2e83353fd72a.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="67a4bf2a-857a-44bb-836c-2e83353fd72a.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="6c337c09-b12f-4e6b-8f65-6c60c2df88cb.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="76d8275c-ca4f-4750-9228-10c55555d8fe.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="76d8275c-ca4f-4750-9228-10c55555d8fe.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b496c58a-d855-4f01-8431-d25ebcf77a13.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="b496c58a-d855-4f01-8431-d25ebcf77a13.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="bfaf1266-f4fa-4404-8bd5-36529583a1cb.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="bfaf1266-f4fa-4404-8bd5-36529583a1cb.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="cb2cdf51-b5da-411d-9350-35d9a620515d.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="cb2cdf51-b5da-411d-9350-35d9a620515d.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="d8cadf68-7509-49e3-859d-046c114d65ed.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="d8cadf68-7509-49e3-859d-046c114d65ed.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="e1179b11-1ba8-4eb6-990c-493e5a25b275.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="e1179b11-1ba8-4eb6-990c-493e5a25b275.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="e5a2dd22-5a41-48eb-9b25-8ff48199ed89.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:08:04</t>
+    <t>2017-02-09 16:10:18</t>
   </si>
   <si>
     <t>ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md</t>
@@ -133,13 +133,13 @@
     <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:07:44</t>
+    <t>2017-02-09 16:09:53</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 16:08:43</t>
+    <t>2017-02-09 16:10:57</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:09:08</t>
+    <t>2017-02-09 16:11:23</t>
   </si>
   <si>
     <t>4066dd2f-145f-4bc4-9a29-b8822e9b16ac.1f5c1ef0c073e683166b6b5c438544bd79b4898e.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:10:18</t>
+    <t>2017-02-09 16:12:29</t>
   </si>
   <si>
     <t>ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md</t>
@@ -133,13 +133,13 @@
     <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:09:53</t>
+    <t>2017-02-09 16:12:10</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 16:10:57</t>
+    <t>2017-02-09 16:12:58</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:11:23</t>
+    <t>2017-02-09 16:13:22</t>
   </si>
   <si>
     <t>4066dd2f-145f-4bc4-9a29-b8822e9b16ac.1f5c1ef0c073e683166b6b5c438544bd79b4898e.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md</t>
-  </si>
-  <si>
-    <t>e2e\cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md</t>
+    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md</t>
+  </si>
+  <si>
+    <t>e2e\48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:12:29</t>
-  </si>
-  <si>
-    <t>ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:04:58</t>
-  </si>
-  <si>
-    <t>ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md</t>
+    <t>2017-02-09 16:14:37</t>
+  </si>
+  <si>
+    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.md</t>
+  </si>
+  <si>
+    <t>e2e\6baca4cf-7817-4dca-87e2-46a63ed292ca.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:12:10</t>
+    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.5d67f5b125d276025d9bfb8be4467f677f5882c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:14:17</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 16:12:58</t>
+    <t>2017-02-09 16:15:13</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>4066dd2f-145f-4bc4-9a29-b8822e9b16ac.1f5c1ef0c073e683166b6b5c438544bd79b4898e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:04:41</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:05:41</t>
-  </si>
-  <si>
-    <t>cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.77d701417070507dba71619711e66317c404feff.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:13:22</t>
-  </si>
-  <si>
-    <t>4066dd2f-145f-4bc4-9a29-b8822e9b16ac.1f5c1ef0c073e683166b6b5c438544bd79b4898e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:06:07</t>
+    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.4fd5de6eb9c5539cfc0fa402559d1458c29777f4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.5d67f5b125d276025d9bfb8be4467f677f5882c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:15:39</t>
+  </si>
+  <si>
+    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.4fd5de6eb9c5539cfc0fa402559d1458c29777f4.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="cfc1c485-46c6-4bab-b6c8-80e6a9de4c22.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff7dd74055-cbb0-477a-ad16-7d3919fb31e3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffffbb26b8d5-f79b-4e06-9f28-a01b155cbc96.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md</t>
-  </si>
-  <si>
-    <t>e2e\48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md</t>
+    <t>29d5be5b-0675-4708-817e-4ea116377819.md</t>
+  </si>
+  <si>
+    <t>e2e\29d5be5b-0675-4708-817e-4ea116377819.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:14:37</t>
-  </si>
-  <si>
-    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.md</t>
-  </si>
-  <si>
-    <t>e2e\6baca4cf-7817-4dca-87e2-46a63ed292ca.md</t>
+    <t>2017-02-09 16:21:21</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.5d67f5b125d276025d9bfb8be4467f677f5882c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:14:17</t>
+    <t>29d5be5b-0675-4708-817e-4ea116377819.94e6e24afd5850ea8a21de4ede714b453f008a3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:21:04</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 16:15:13</t>
+    <t>2017-02-09 16:22:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.4fd5de6eb9c5539cfc0fa402559d1458c29777f4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>48f8baab-0fb7-49d5-ab2b-c8c53301ef65.5d67f5b125d276025d9bfb8be4467f677f5882c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:15:39</t>
-  </si>
-  <si>
-    <t>6baca4cf-7817-4dca-87e2-46a63ed292ca.4fd5de6eb9c5539cfc0fa402559d1458c29777f4.de-de.xlf</t>
+    <t>29d5be5b-0675-4708-817e-4ea116377819.94e6e24afd5850ea8a21de4ede714b453f008a3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:22:25</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="48f8baab-0fb7-49d5-ab2b-c8c53301ef65.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="6baca4cf-7817-4dca-87e2-46a63ed292ca.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>29d5be5b-0675-4708-817e-4ea116377819.md</t>
-  </si>
-  <si>
-    <t>e2e\29d5be5b-0675-4708-817e-4ea116377819.md</t>
+    <t>6415763b-d63f-4de6-a66d-711e319b6760.md</t>
+  </si>
+  <si>
+    <t>e2e\6415763b-d63f-4de6-a66d-711e319b6760.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:21:21</t>
+    <t>2017-02-09 16:27:25</t>
+  </si>
+  <si>
+    <t>e53befa5-a7ea-4860-b594-4c88b419b1dc.md</t>
+  </si>
+  <si>
+    <t>e2e\e53befa5-a7ea-4860-b594-4c88b419b1dc.md</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:28:28</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>29d5be5b-0675-4708-817e-4ea116377819.94e6e24afd5850ea8a21de4ede714b453f008a3f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:21:04</t>
+    <t>6415763b-d63f-4de6-a66d-711e319b6760.5456b515b9d14bd58bfd1ac6818f55a24d32b65f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:27:08</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-09 16:22:00</t>
+    <t>2017-02-09 16:29:14</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>29d5be5b-0675-4708-817e-4ea116377819.94e6e24afd5850ea8a21de4ede714b453f008a3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:22:25</t>
+    <t>e53befa5-a7ea-4860-b594-4c88b419b1dc.26cd2d7d659d41b6dcfe90c98fb5f0e001db252f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:28:11</t>
+  </si>
+  <si>
+    <t>6415763b-d63f-4de6-a66d-711e319b6760.5456b515b9d14bd58bfd1ac6818f55a24d32b65f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:29:44</t>
+  </si>
+  <si>
+    <t>e53befa5-a7ea-4860-b594-4c88b419b1dc.26cd2d7d659d41b6dcfe90c98fb5f0e001db252f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\6415763b-d63f-4de6-a66d-711e319b6760.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\e53befa5-a7ea-4860-b594-4c88b419b1dc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="6415763b-d63f-4de6-a66d-711e319b6760.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="6415763b-d63f-4de6-a66d-711e319b6760.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e53befa5-a7ea-4860-b594-4c88b419b1dc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e53befa5-a7ea-4860-b594-4c88b419b1dc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="29d5be5b-0675-4708-817e-4ea116377819.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="6415763b-d63f-4de6-a66d-711e319b6760.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="6415763b-d63f-4de6-a66d-711e319b6760.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e53befa5-a7ea-4860-b594-4c88b419b1dc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e53befa5-a7ea-4860-b594-4c88b419b1dc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:35:01</t>
+  </si>
+  <si>
+    <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
+  </si>
+  <si>
+    <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:35:01</t>
-  </si>
-  <si>
-    <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
-  </si>
-  <si>
-    <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
+    <t>2017-02-09 16:37:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +145,12 @@
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-09 16:37:14</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:38:18</t>
+  </si>
+  <si>
     <t>0f1dba0d-4e71-4402-a32a-44260b288868.ed6911e7d22020724f6846200d436a97fd4971ab.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:38:44</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,13 +357,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +526,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-09 16:35:01</t>
   </si>
   <si>
+    <t>517992c0-b950-4758-a718-d41ffd9e7b11.md</t>
+  </si>
+  <si>
+    <t>e2e\517992c0-b950-4758-a718-d41ffd9e7b11.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:39:44</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
   </si>
   <si>
     <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 16:37:35</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>517992c0-b950-4758-a718-d41ffd9e7b11.530d3d4ac1cc8418db983ddfa9fb7815b127b291.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:39:26</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:40:24</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-09 16:36:29</t>
+  </si>
+  <si>
+    <t>517992c0-b950-4758-a718-d41ffd9e7b11.530d3d4ac1cc8418db983ddfa9fb7815b127b291.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:40:53</t>
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -58,18 +58,18 @@
     <t>e2e\517992c0-b950-4758-a718-d41ffd9e7b11.md</t>
   </si>
   <si>
+    <t>2017-02-09 16:41:52</t>
+  </si>
+  <si>
+    <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
+  </si>
+  <si>
+    <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-09 16:39:44</t>
-  </si>
-  <si>
-    <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
-  </si>
-  <si>
-    <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
-  </si>
-  <si>
     <t>2017-02-09 16:37:35</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>517992c0-b950-4758-a718-d41ffd9e7b11.530d3d4ac1cc8418db983ddfa9fb7815b127b291.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:39:26</t>
-  </si>
-  <si>
-    <t>2017-02-09 16:40:24</t>
+    <t>2017-02-09 16:41:32</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:43:10</t>
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>517992c0-b950-4758-a718-d41ffd9e7b11.530d3d4ac1cc8418db983ddfa9fb7815b127b291.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-09 16:40:53</t>
+    <t>2017-02-09 16:43:34</t>
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.de-de.xlf</t>
@@ -381,30 +381,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -648,7 +648,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>48</v>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -854,7 +854,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>42</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -916,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>55</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -61,15 +61,24 @@
     <t>2017-02-09 16:41:52</t>
   </si>
   <si>
+    <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.md</t>
+  </si>
+  <si>
+    <t>e2e\a518eebb-2b40-4df6-a7d6-61aacd3dd057.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:44:40</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
   </si>
   <si>
     <t>e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 16:37:35</t>
   </si>
   <si>
@@ -160,6 +169,15 @@
     <t>2017-02-09 16:43:10</t>
   </si>
   <si>
+    <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.bd9454c4cc03d75efa6ca2241a0d90e4c8de97a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:44:22</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:45:18</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.zh-cn.xlf</t>
   </si>
   <si>
@@ -179,6 +197,12 @@
   </si>
   <si>
     <t>2017-02-09 16:43:34</t>
+  </si>
+  <si>
+    <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.bd9454c4cc03d75efa6ca2241a0d90e4c8de97a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:45:43</t>
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.de-de.xlf</t>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +434,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +498,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +563,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +619,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -630,49 +675,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +782,10 @@
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
     <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
     <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +824,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +889,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +945,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -898,49 +1001,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -949,8 +1108,10 @@
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
     <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
     <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -61,18 +61,45 @@
     <t>2017-02-09 16:41:52</t>
   </si>
   <si>
+    <t>108eacb2-80b7-4dfc-85cf-52d3a26f8906.md</t>
+  </si>
+  <si>
+    <t>e2e\108eacb2-80b7-4dfc-85cf-52d3a26f8906.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:47:11</t>
+  </si>
+  <si>
+    <t>3173fb22-e8a5-46ae-9d29-6f434b0011e4.md</t>
+  </si>
+  <si>
+    <t>e2e\3173fb22-e8a5-46ae-9d29-6f434b0011e4.md</t>
+  </si>
+  <si>
+    <t>39848330-f8f5-47dd-bd66-2be64ba2eec8.md</t>
+  </si>
+  <si>
+    <t>e2e\39848330-f8f5-47dd-bd66-2be64ba2eec8.md</t>
+  </si>
+  <si>
     <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.md</t>
   </si>
   <si>
     <t>e2e\a518eebb-2b40-4df6-a7d6-61aacd3dd057.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-09 16:44:40</t>
   </si>
   <si>
+    <t>b31c6659-88de-4f26-bd7f-fea06feae257.md</t>
+  </si>
+  <si>
+    <t>e2e\b31c6659-88de-4f26-bd7f-fea06feae257.md</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md</t>
   </si>
   <si>
@@ -169,6 +196,21 @@
     <t>2017-02-09 16:43:10</t>
   </si>
   <si>
+    <t>108eacb2-80b7-4dfc-85cf-52d3a26f8906.58523b1e992c9ee054be6f907be7389a29b529c6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:46:52</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:48:35</t>
+  </si>
+  <si>
+    <t>3173fb22-e8a5-46ae-9d29-6f434b0011e4.b1df618f38e82300341ed94b247486f7b9489dcc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>39848330-f8f5-47dd-bd66-2be64ba2eec8.862b6447da9210e3036bbe3769b8eeb1caafe842.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.bd9454c4cc03d75efa6ca2241a0d90e4c8de97a9.zh-cn.xlf</t>
   </si>
   <si>
@@ -178,6 +220,9 @@
     <t>2017-02-09 16:45:18</t>
   </si>
   <si>
+    <t>b31c6659-88de-4f26-bd7f-fea06feae257.e61008b0c22db274450d4975fda40b9ccbefcea4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.zh-cn.xlf</t>
   </si>
   <si>
@@ -199,10 +244,25 @@
     <t>2017-02-09 16:43:34</t>
   </si>
   <si>
+    <t>108eacb2-80b7-4dfc-85cf-52d3a26f8906.58523b1e992c9ee054be6f907be7389a29b529c6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-09 16:48:58</t>
+  </si>
+  <si>
+    <t>3173fb22-e8a5-46ae-9d29-6f434b0011e4.b1df618f38e82300341ed94b247486f7b9489dcc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>39848330-f8f5-47dd-bd66-2be64ba2eec8.862b6447da9210e3036bbe3769b8eeb1caafe842.de-de.xlf</t>
+  </si>
+  <si>
     <t>a518eebb-2b40-4df6-a7d6-61aacd3dd057.bd9454c4cc03d75efa6ca2241a0d90e4c8de97a9.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-09 16:45:43</t>
+  </si>
+  <si>
+    <t>b31c6659-88de-4f26-bd7f-fea06feae257.e61008b0c22db274450d4975fda40b9ccbefcea4.de-de.xlf</t>
   </si>
   <si>
     <t>ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.2bc91aff073cfe63db6f58fd315776d6301ba80f.de-de.xlf</t>
@@ -265,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,15 +511,99 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\108eacb2-80b7-4dfc-85cf-52d3a26f8906.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\3173fb22-e8a5-46ae-9d29-6f434b0011e4.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\39848330-f8f5-47dd-bd66-2be64ba2eec8.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\b31c6659-88de-4f26-bd7f-fea06feae257.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -470,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,58 +642,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -563,49 +707,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -619,49 +763,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -675,49 +819,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -731,49 +875,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +1150,18 @@
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
     <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
     <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId9"/>
+    <hyperlink ref="A4" display="108eacb2-80b7-4dfc-85cf-52d3a26f8906.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="108eacb2-80b7-4dfc-85cf-52d3a26f8906.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3173fb22-e8a5-46ae-9d29-6f434b0011e4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3173fb22-e8a5-46ae-9d29-6f434b0011e4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="39848330-f8f5-47dd-bd66-2be64ba2eec8.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="39848330-f8f5-47dd-bd66-2be64ba2eec8.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b31c6659-88de-4f26-bd7f-fea06feae257.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="b31c6659-88de-4f26-bd7f-fea06feae257.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -796,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,58 +1200,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -889,49 +1265,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -945,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1001,49 +1377,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1057,49 +1433,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1708,18 @@
     <hyperlink ref="J2" display="0f1dba0d-4e71-4402-a32a-44260b288868.md" r:id="rId3"/>
     <hyperlink ref="A3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId4"/>
     <hyperlink ref="J3" display="517992c0-b950-4758-a718-d41ffd9e7b11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId9"/>
+    <hyperlink ref="A4" display="108eacb2-80b7-4dfc-85cf-52d3a26f8906.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="108eacb2-80b7-4dfc-85cf-52d3a26f8906.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3173fb22-e8a5-46ae-9d29-6f434b0011e4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3173fb22-e8a5-46ae-9d29-6f434b0011e4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="39848330-f8f5-47dd-bd66-2be64ba2eec8.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="39848330-f8f5-47dd-bd66-2be64ba2eec8.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="a518eebb-2b40-4df6-a7d6-61aacd3dd057.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b31c6659-88de-4f26-bd7f-fea06feae257.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="b31c6659-88de-4f26-bd7f-fea06feae257.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="ffb5a0b7-af77-46ee-98db-f4a0b1a1874b.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -46,10 +46,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-10 07:30:09</t>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-10 07:32:47</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>68e93543-7085-44ff-8670-1b4d66bd4f4f.6dc00dff36adee807c47511e271ebfd60b5c013a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-10 07:28:55</t>
+    <t>2017-02-10 07:32:30</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-10 07:31:24</t>
+    <t>2017-02-10 07:34:12</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>68e93543-7085-44ff-8670-1b4d66bd4f4f.6dc00dff36adee807c47511e271ebfd60b5c013a.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-10 07:31:50</t>
+    <t>2017-02-10 07:34:34</t>
   </si>
 </sst>
 </file>
@@ -271,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -492,7 +492,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-15 05:54:49</t>
+    <t>2017-02-15 05:56:57</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>942e6272-aa00-41cc-9f69-e0acc0521251.c3e5ec8e4eb76e8e37032d4a63418a5ad43a3105.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 05:54:31</t>
+    <t>2017-02-15 05:56:39</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-15 05:55:27</t>
+    <t>2017-02-15 05:57:40</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>942e6272-aa00-41cc-9f69-e0acc0521251.c3e5ec8e4eb76e8e37032d4a63418a5ad43a3105.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 05:55:52</t>
+    <t>2017-02-15 05:58:04</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-15 06:01:09</t>
+    <t>2017-02-15 06:04:06</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>30be2b79-a958-481b-bd01-0d152dd008b2.3c1d233b68736f7e9d5acb0d501dfa752a4e1a10.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 05:59:53</t>
+    <t>2017-02-15 06:03:48</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-15 06:02:35</t>
+    <t>2017-02-15 06:04:42</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>30be2b79-a958-481b-bd01-0d152dd008b2.3c1d233b68736f7e9d5acb0d501dfa752a4e1a10.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 06:02:59</t>
+    <t>2017-02-15 06:05:09</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/shujia/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-15 06:04:06</t>
+    <t>2017-02-15 06:06:13</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>30be2b79-a958-481b-bd01-0d152dd008b2.3c1d233b68736f7e9d5acb0d501dfa752a4e1a10.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 06:03:48</t>
+    <t>2017-02-15 06:05:54</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-15 06:04:42</t>
+    <t>2017-02-15 06:06:40</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>30be2b79-a958-481b-bd01-0d152dd008b2.3c1d233b68736f7e9d5acb0d501dfa752a4e1a10.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-15 06:05:09</t>
+    <t>2017-02-15 06:07:07</t>
   </si>
 </sst>
 </file>
